--- a/biology/Botanique/Coussapoa_angustifolia/Coussapoa_angustifolia.xlsx
+++ b/biology/Botanique/Coussapoa_angustifolia/Coussapoa_angustifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coussapoa angustifolia est une espèce de plantes à fleurs hémiépiphyte primaire de la famille des Urticaceae (anciennement des Cecropiaceae).
-En Guyane, on appelait cet arbre coussapoui chez les Galibis[2].
+En Guyane, on appelait cet arbre coussapoui chez les Galibis.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet rapporte ceci[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet rapporte ceci : 
 « COUSSAPOA (anguſtifolia) foliis ovato oblongis, ſubtùs ferrugineis ; fructu nigro, globoſo, ſolitario, pedunculato. (TABULA 363.)
 Species altera occurrit foliis minoribus, ovato-oblongis, obtuſis, fructu majori, ſolitario, pedunculato, axillari. 
 Nomen Caribasum coussapoui. »
